--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Code\PassionProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421CD34D-0CB8-4583-AFCC-7AAE3515C2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FED825-B96A-455E-8FC2-B861DA86AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18600" yWindow="-2417" windowWidth="18686" windowHeight="16183" xr2:uid="{E15E48C3-65DD-4296-8903-BC04C07DCBDB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E15E48C3-65DD-4296-8903-BC04C07DCBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
     <t>邁達特</t>
   </si>
   <si>
-    <t>傳奇</t>
+    <t>台泥</t>
   </si>
 </sst>
 </file>
@@ -742,13 +742,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D47D9F9-9AD6-42B1-9839-15A8BB6C3884}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -759,7 +759,7 @@
         <v>8069</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -770,7 +770,7 @@
         <v>6488</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -781,7 +781,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -792,7 +792,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -803,7 +803,7 @@
         <v>5347</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -814,7 +814,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -825,7 +825,7 @@
         <v>8299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -836,7 +836,7 @@
         <v>5274</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -847,7 +847,7 @@
         <v>6121</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -858,7 +858,7 @@
         <v>4743</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -869,7 +869,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -880,7 +880,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -891,7 +891,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -902,7 +902,7 @@
         <v>5094</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -913,7 +913,7 @@
         <v>6643</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -924,7 +924,7 @@
         <v>6247</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -935,7 +935,7 @@
         <v>5903</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -946,7 +946,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -957,7 +957,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -968,7 +968,7 @@
         <v>8415</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -979,7 +979,7 @@
         <v>6469</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -990,7 +990,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>8086</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>6561</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>5289</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>6856</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>6846</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>4706</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>6556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>6139</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>6505</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>9910</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>9921</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>6112</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="1">
-        <v>4994</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>

--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Code\PassionProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FED825-B96A-455E-8FC2-B861DA86AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAFF4B1-667B-47C6-9C17-72E9EE0FAAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E15E48C3-65DD-4296-8903-BC04C07DCBDB}"/>
+    <workbookView xWindow="4731" yWindow="4731" windowWidth="24686" windowHeight="13055" xr2:uid="{E15E48C3-65DD-4296-8903-BC04C07DCBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -77,12 +77,6 @@
     <t>頎邦科技</t>
   </si>
   <si>
-    <t>寶雅國際</t>
-  </si>
-  <si>
-    <t>M31</t>
-  </si>
-  <si>
     <t>台燿科技</t>
   </si>
   <si>
@@ -119,48 +113,24 @@
     <t>旺矽科技</t>
   </si>
   <si>
-    <t>是方</t>
-  </si>
-  <si>
     <t>威剛科技</t>
   </si>
   <si>
     <t>順藥</t>
   </si>
   <si>
-    <t>台康生技</t>
-  </si>
-  <si>
     <t>宜鼎</t>
   </si>
   <si>
     <t>東碩 (劣)</t>
   </si>
   <si>
-    <t>鑫傳</t>
-  </si>
-  <si>
-    <t>健樁</t>
-  </si>
-  <si>
     <t>維田</t>
   </si>
   <si>
-    <t>寶陞</t>
-  </si>
-  <si>
-    <t>富致</t>
-  </si>
-  <si>
-    <t>茂生農經</t>
-  </si>
-  <si>
     <t>詩肯</t>
   </si>
   <si>
-    <t>綠茵</t>
-  </si>
-  <si>
     <t>太普高</t>
   </si>
   <si>
@@ -212,9 +182,6 @@
     <t>潤泰全</t>
   </si>
   <si>
-    <t>南寶 (化學)</t>
-  </si>
-  <si>
     <t>長興</t>
   </si>
   <si>
@@ -245,9 +212,6 @@
     <t>裕日車</t>
   </si>
   <si>
-    <t>汎德永業</t>
-  </si>
-  <si>
     <t>長榮 (航運)</t>
   </si>
   <si>
@@ -335,7 +299,43 @@
     <t>邁達特</t>
   </si>
   <si>
-    <t>台泥</t>
+    <t>卜蜂</t>
+  </si>
+  <si>
+    <t>中石化</t>
+  </si>
+  <si>
+    <t>全國</t>
+  </si>
+  <si>
+    <t>台船</t>
+  </si>
+  <si>
+    <t>利華</t>
+  </si>
+  <si>
+    <t>中鋼</t>
+  </si>
+  <si>
+    <t>燁興</t>
+  </si>
+  <si>
+    <t>第一銅</t>
+  </si>
+  <si>
+    <t>華友聯</t>
+  </si>
+  <si>
+    <t>國化</t>
+  </si>
+  <si>
+    <t>東鹼</t>
+  </si>
+  <si>
+    <t>傳奇</t>
+  </si>
+  <si>
+    <t>三陽工業</t>
   </si>
 </sst>
 </file>
@@ -363,15 +363,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -379,31 +385,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -742,13 +739,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D47D9F9-9AD6-42B1-9839-15A8BB6C3884}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="K115" sqref="K115"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -759,7 +756,7 @@
         <v>8069</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -770,7 +767,7 @@
         <v>6488</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -781,7 +778,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -792,7 +789,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -803,7 +800,7 @@
         <v>5347</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -814,7 +811,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -825,7 +822,7 @@
         <v>8299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -836,7 +833,7 @@
         <v>5274</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -847,7 +844,7 @@
         <v>6121</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -858,7 +855,7 @@
         <v>4743</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -869,7 +866,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -880,7 +877,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -891,964 +888,965 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>6643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>6247</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>5903</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>3680</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>3264</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>8415</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>6469</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>3374</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>3362</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>6548</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
         <v>3228</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>8086</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>6223</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="3">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9937</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
         <v>3260</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
         <v>6535</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="3">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1">
-        <v>6589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1">
         <v>5289</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1">
         <v>3272</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1">
-        <v>6856</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
         <v>35</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <v>6570</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="3">
         <v>37</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1">
+      <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="3">
         <v>38</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>6642</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1">
+      <c r="B38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
         <v>39</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1">
         <v>6195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
         <v>41</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>6846</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
         <v>3284</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C43" s="1">
         <v>4706</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1">
         <v>6556</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1">
         <v>3508</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1">
         <v>1586</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1">
         <v>1201</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
         <v>1217</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1">
         <v>1216</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1">
         <v>2349</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1">
         <v>2323</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1">
         <v>3481</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1">
         <v>2408</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C54" s="1">
         <v>3051</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1">
         <v>2317</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C56" s="1">
         <v>6139</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1">
         <v>2903</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C58" s="1">
         <v>2915</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="3">
         <v>59</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="1">
-        <v>4766</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1">
         <v>1717</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C61" s="1">
         <v>2105</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C62" s="1">
         <v>2412</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C63" s="1">
         <v>3380</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1">
         <v>2538</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C65" s="1">
         <v>6505</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C66" s="1">
         <v>1701</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C67" s="1">
         <v>1795</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C68" s="1">
         <v>1319</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C69" s="1">
         <v>2227</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="3">
         <v>70</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C71" s="1">
         <v>2603</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C72" s="1">
         <v>5608</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C73" s="1">
         <v>1402</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C74" s="1">
         <v>1414</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C75" s="1">
         <v>1817</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" ht="29.15" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C76" s="1">
         <v>2303</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C77" s="1">
         <v>2351</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C78" s="1">
         <v>2338</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C79" s="1">
         <v>2449</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C80" s="1">
         <v>2347</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C81" s="1">
         <v>2430</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C82" s="1">
         <v>3010</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C83" s="1">
         <v>3209</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C84" s="1">
         <v>2704</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C85" s="1">
         <v>2705</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C86" s="1">
         <v>2707</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C87" s="1">
         <v>1432</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C88" s="1">
         <v>9910</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C89" s="1">
         <v>9921</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C90" s="1">
         <v>1504</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C91" s="1">
         <v>1514</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C92" s="1">
         <v>1503</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C93" s="1">
         <v>2324</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C94" s="1">
         <v>2357</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C95" s="1">
         <v>2352</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C96" s="1">
         <v>2395</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C97" s="1">
         <v>2376</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" ht="43.3" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C98" s="1">
         <v>2471</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C99" s="1">
         <v>6112</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="1">
-        <v>1101</v>
+        <v>4994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Code\PassionProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAFF4B1-667B-47C6-9C17-72E9EE0FAAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078484BA-2D36-4C65-B9E3-78E5F80B4FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4731" yWindow="4731" windowWidth="24686" windowHeight="13055" xr2:uid="{E15E48C3-65DD-4296-8903-BC04C07DCBDB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{E15E48C3-65DD-4296-8903-BC04C07DCBDB}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -296,9 +296,6 @@
     <t>資通 (資訊服務)</t>
   </si>
   <si>
-    <t>邁達特</t>
-  </si>
-  <si>
     <t>卜蜂</t>
   </si>
   <si>
@@ -332,10 +329,13 @@
     <t>東鹼</t>
   </si>
   <si>
-    <t>傳奇</t>
-  </si>
-  <si>
     <t>三陽工業</t>
+  </si>
+  <si>
+    <t>亞泥</t>
+  </si>
+  <si>
+    <t>台泥</t>
   </si>
 </sst>
 </file>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D47D9F9-9AD6-42B1-9839-15A8BB6C3884}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection sqref="A1:C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3">
         <v>1215</v>
@@ -904,7 +904,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3">
         <v>1314</v>
@@ -1047,7 +1047,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3">
         <v>9937</v>
@@ -1080,7 +1080,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3">
         <v>2208</v>
@@ -1113,7 +1113,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1">
         <v>2206</v>
@@ -1124,7 +1124,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3">
         <v>1423</v>
@@ -1146,7 +1146,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3">
         <v>2002</v>
@@ -1157,7 +1157,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3">
         <v>2007</v>
@@ -1168,7 +1168,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3">
         <v>2009</v>
@@ -1190,7 +1190,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3">
         <v>1436</v>
@@ -1388,7 +1388,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="3">
         <v>1713</v>
@@ -1509,7 +1509,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="3">
         <v>1708</v>
@@ -1828,10 +1828,10 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C99" s="1">
-        <v>6112</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -1839,10 +1839,10 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C100" s="1">
-        <v>4994</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
